--- a/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 5,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>2,37; 9,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 3,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 10,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 5,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>1,92; 10,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 1,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 4,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 4,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,89; 8,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>2,78; 8,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 3,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 6,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 4,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>4,08; 10,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 2,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 3,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,13; 8,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,35; 2,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,86; 5,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>2,27; 7,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,29; 3,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>2,97; 6,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 6,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>3,52; 9,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,99; 2,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>2,38; 5,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 3,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,69</t>
+          <t>3,3; 7,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,56</t>
+          <t>1,61; 4,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,39</t>
+          <t>1,21; 6,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>1,1; 3,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,57</t>
+          <t>4,09; 11,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,06</t>
+          <t>2,36; 5,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,12</t>
+          <t>5,81; 9,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,53</t>
+          <t>3,62; 8,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,26</t>
+          <t>9,74; 21,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,89</t>
+          <t>2,18; 4,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,86</t>
+          <t>2,39; 7,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,43</t>
+          <t>2,67; 5,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,46</t>
+          <t>7,81; 14,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>13,84%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>2,33; 5,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,85</t>
+          <t>3,44; 8,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,98</t>
+          <t>3,18; 7,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>3,6; 10,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,64</t>
+          <t>3,31; 6,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,72</t>
+          <t>10,83; 16,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,3</t>
+          <t>6,01; 11,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,39</t>
+          <t>14,97; 27,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,15</t>
+          <t>3,16; 5,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,48</t>
+          <t>7,58; 11,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,3</t>
+          <t>5,15; 8,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,93</t>
+          <t>10,62; 18,7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,32</t>
+          <t>0,78; 2,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 7,06</t>
+          <t>0,32; 2,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,45</t>
+          <t>0,47; 2,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,4</t>
+          <t>4,53; 21,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,71</t>
+          <t>3,62; 6,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,16</t>
+          <t>2,4; 14,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,33</t>
+          <t>4,54; 9,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,71</t>
+          <t>9,15; 22,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,87</t>
+          <t>2,51; 4,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,94</t>
+          <t>2,45; 8,52</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,87</t>
+          <t>2,82; 5,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,11</t>
+          <t>8,3; 17,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,68</t>
+          <t>1,61; 4,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,65</t>
+          <t>4,69; 11,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,15</t>
+          <t>1,61; 4,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,79</t>
+          <t>3,07; 11,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,47</t>
+          <t>4,96; 8,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,83; 21,18</t>
+          <t>7,63; 13,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,03</t>
+          <t>6,44; 11,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,23</t>
+          <t>18,27; 31,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,03</t>
+          <t>3,91; 6,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,52</t>
+          <t>7,12; 11,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,86</t>
+          <t>4,88; 8,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,95</t>
+          <t>13,68; 23,2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,45</t>
+          <t>1,59; 2,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,43; 10,19</t>
+          <t>2,01; 4,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,82</t>
+          <t>1,7; 2,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,19</t>
+          <t>4,9; 7,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,53; 12,11</t>
+          <t>3,42; 4,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,01; 27,91</t>
+          <t>5,35; 8,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,82; 15,01</t>
+          <t>4,84; 6,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,04</t>
+          <t>11,4; 15,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,96</t>
+          <t>2,68; 3,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,62; 18,18</t>
+          <t>4,21; 6,18</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,75; 10,7</t>
+          <t>3,52; 4,58</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,07</t>
+          <t>8,43; 10,96</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>6,7%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>13,81%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>9,61%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>11,84%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 2,19</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>4,89; 20,52</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 4,07</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 2,25</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 9,04</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 21,77</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>4,96; 13,11</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 6,92</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 4,98</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 17,84</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 8,24</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 4,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>9,31%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>24,62%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>9,97%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>6,32%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>17,69%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>8,47%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 4,98</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 11,54</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 8,73</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 4,29</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 11,97</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>18,14; 31,86</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>8,07; 12,24</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 8,41</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 8,0</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>13,67; 22,99</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>7,1; 10,1</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 5,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,12%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,93%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,73</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 7,42</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 4,17</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,16</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 6,99</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>11,17; 15,13</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 8,35</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 4,11</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 4,67</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 11,01</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 6,19</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 3,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de antidepresivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3275</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8963</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6415</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>104; 1274</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1631; 9438</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1533; 5952</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>238; 2084</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2190; 18994</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1930; 9214</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1183; 6571</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>572; 2444</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2195; 19874</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5014; 15508</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3653; 10646</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6534</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9759</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5672</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8651</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10838</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6884</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1470</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4876</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4053</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3432; 10595</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>502; 2400</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3630; 19940</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2744; 10354</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5218; 13650</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>621; 2906</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4746; 20010</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3541; 13214</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10373; 21413</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7716</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15065</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9863</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7520</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22782</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11851</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13414</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>334; 2146</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2670; 16401</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>421; 5240</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3165; 9799</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1255; 3636</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9588; 22138</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6024; 15479</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4591; 12289</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1907; 4712</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15049; 32277</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7562; 18355</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8908; 19168</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22600</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6124</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4806</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31280</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15679</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>17143</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8458</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53880</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21802</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>25186</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2243; 5574</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7562; 43070</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3255; 11018</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4809; 13086</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3253; 7412</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23537; 40375</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10122; 22863</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11640; 25636</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6042; 11245</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24707; 77088</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15400; 29927</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18522; 34338</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19008</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6918</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42931</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21556</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23581</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11618</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>61939</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33760</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29601</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2955; 7333</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11678; 27493</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7456; 18129</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3527; 10222</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4880; 9438</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34536; 52724</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15263; 29540</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17342; 32229</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8674; 15169</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>49884; 75052</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25177; 43689</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22717; 39992</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2586</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6437</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5760</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>33883</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12747</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12205</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>36468</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14693</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18642</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>834; 3188</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>663; 6059</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>874; 3911</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3132; 14621</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4161; 8019</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10882; 65854</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8572; 17581</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8085; 20314</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5584; 10209</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16171; 56274</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10522; 20095</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13063; 27807</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11374</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4162</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8938</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>23760</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27284</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35133</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>22612</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>31535</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1554; 4528</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7099; 16877</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2362; 6735</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2070; 7941</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6649; 11540</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17790; 31510</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13649; 23808</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20246; 35361</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8994; 14880</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>27393; 44379</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>17482; 29038</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24393; 41368</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>14191</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>64363</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>32132</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>40452</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>30421</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>163906</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>88431</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>99525</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>44613</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>228270</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>120564</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>139977</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>11112; 17911</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>42293; 85559</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>24857; 42009</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>33267; 51632</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>25865; 35194</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>119268; 193488</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>75734; 103189</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>86017; 115264</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>38920; 50855</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>182556; 267850</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>106453; 138757</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>120960; 157192</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos</t>
+          <t>Consumo de antidepresivos (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos</t>
+          <t>Consumo de antidepresivos (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,03</t>
+          <t>0,32; 3,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,2</t>
+          <t>2,38; 9,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,33</t>
+          <t>0,41; 2,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,3</t>
+          <t>1,22; 10,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,68</t>
+          <t>2,18; 11,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,95</t>
+          <t>0,56; 2,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,73</t>
+          <t>0,53; 4,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,44</t>
+          <t>2,87; 8,23</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,13</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,59</t>
+          <t>2,97; 8,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,84</t>
+          <t>0,6; 3,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,34</t>
+          <t>1,11; 6,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,66</t>
+          <t>4,18; 9,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,21</t>
+          <t>0,34; 1,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,68</t>
+          <t>0,87; 3,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,52</t>
+          <t>4,2; 8,6</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,27</t>
+          <t>0,41; 2,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,28</t>
+          <t>1,03; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,03</t>
+          <t>2,35; 7,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,73</t>
+          <t>1,24; 3,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,86</t>
+          <t>3,06; 6,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,42</t>
+          <t>3,45; 9,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,45</t>
+          <t>0,95; 2,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,1</t>
+          <t>2,5; 5,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,1</t>
+          <t>3,49; 7,14</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,0</t>
+          <t>1,64; 4,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,87</t>
+          <t>1,1; 6,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 11,12</t>
+          <t>4,35; 11,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,37</t>
+          <t>1,87; 4,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,97</t>
+          <t>5,83; 10,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 21,45</t>
+          <t>9,96; 21,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,05</t>
+          <t>1,99; 3,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,47</t>
+          <t>2,55; 7,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 14,48</t>
+          <t>7,75; 14,25</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,78</t>
+          <t>1,99; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,11</t>
+          <t>3,63; 8,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,43</t>
+          <t>3,41; 10,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,41</t>
+          <t>3,59; 6,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,53</t>
+          <t>10,59; 16,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 27,82</t>
+          <t>15,28; 28,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,53</t>
+          <t>3,17; 5,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,41</t>
+          <t>7,74; 11,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 18,7</t>
+          <t>10,25; 18,41</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,96</t>
+          <t>1,13; 3,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,91</t>
+          <t>0,32; 3,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 21,16</t>
+          <t>4,74; 18,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,98</t>
+          <t>3,78; 7,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,4; 14,55</t>
+          <t>1,67; 14,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,15; 22,99</t>
+          <t>8,88; 21,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,59</t>
+          <t>2,8; 4,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,52</t>
+          <t>1,97; 8,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,3; 17,66</t>
+          <t>8,22; 16,91</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,7</t>
+          <t>1,37; 3,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,16</t>
+          <t>4,6; 11,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,77</t>
+          <t>2,93; 11,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,62</t>
+          <t>4,63; 7,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 13,51</t>
+          <t>7,33; 13,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 31,91</t>
+          <t>18,43; 32,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,46</t>
+          <t>3,54; 5,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,54</t>
+          <t>7,01; 11,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,68; 23,2</t>
+          <t>13,37; 22,63</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,57</t>
+          <t>1,64; 2,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,07</t>
+          <t>1,99; 3,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,6</t>
+          <t>4,69; 7,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,65</t>
+          <t>3,18; 4,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,67</t>
+          <t>5,3; 8,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,27</t>
+          <t>11,33; 15,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,5</t>
+          <t>2,56; 3,33</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,18</t>
+          <t>4,04; 6,1</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,43; 10,96</t>
+          <t>8,73; 11,25</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>788</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>104; 1274</t>
+          <t>243; 2690</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1533; 5952</t>
+          <t>1537; 5962</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>238; 2084</t>
+          <t>271; 1821</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2190; 18994</t>
+          <t>2250; 19786</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1183; 6571</t>
+          <t>1343; 6992</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>572; 2444</t>
+          <t>808; 3662</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2195; 19874</t>
+          <t>2216; 20387</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3653; 10646</t>
+          <t>3625; 10385</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1470</t>
+          <t>0; 655</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4876</t>
+          <t>0; 4853</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3432; 10595</t>
+          <t>3666; 11066</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>502; 2400</t>
+          <t>408; 2124</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3630; 19940</t>
+          <t>3499; 19817</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5218; 13650</t>
+          <t>5346; 12776</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>621; 2906</t>
+          <t>481; 2433</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4746; 20010</t>
+          <t>4735; 21231</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10373; 21413</t>
+          <t>10561; 21603</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>334; 2146</t>
+          <t>423; 2745</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2670; 16401</t>
+          <t>3188; 15420</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3165; 9799</t>
+          <t>3276; 10232</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1255; 3636</t>
+          <t>1373; 4275</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9588; 22138</t>
+          <t>9876; 21984</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4591; 12289</t>
+          <t>4507; 12323</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1907; 4712</t>
+          <t>2029; 5474</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15049; 32277</t>
+          <t>15864; 33437</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8908; 19168</t>
+          <t>9416; 19278</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4806</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8458</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2243; 5574</t>
+          <t>2370; 5863</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7562; 43070</t>
+          <t>6920; 42383</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4809; 13086</t>
+          <t>5122; 13159</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3253; 7412</t>
+          <t>2856; 6157</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23537; 40375</t>
+          <t>23592; 40544</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11640; 25636</t>
+          <t>11900; 25967</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6042; 11245</t>
+          <t>5921; 10827</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24707; 77088</t>
+          <t>26319; 76661</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18522; 34338</t>
+          <t>18385; 33793</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>7474</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11618</t>
+          <t>11808</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2955; 7333</t>
+          <t>2574; 6295</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11678; 27493</t>
+          <t>12316; 27858</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3527; 10222</t>
+          <t>3344; 9910</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4880; 9438</t>
+          <t>5453; 10311</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34536; 52724</t>
+          <t>33779; 52665</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17342; 32229</t>
+          <t>17703; 32616</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8674; 15169</t>
+          <t>8918; 15024</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>49884; 75052</t>
+          <t>50951; 75171</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>22717; 39992</t>
+          <t>21930; 39382</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>6203</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>8416</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>834; 3188</t>
+          <t>1178; 3706</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>663; 6059</t>
+          <t>660; 6309</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3132; 14621</t>
+          <t>3278; 13124</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4161; 8019</t>
+          <t>4379; 8455</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10882; 65854</t>
+          <t>7538; 66277</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8085; 20314</t>
+          <t>7843; 19120</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5584; 10209</t>
+          <t>6172; 10972</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>16171; 56274</t>
+          <t>12998; 58199</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13063; 27807</t>
+          <t>12949; 26628</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8938</t>
+          <t>8028</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11560</t>
+          <t>10160</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1554; 4528</t>
+          <t>1225; 3524</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7099; 16877</t>
+          <t>6958; 17712</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2070; 7941</t>
+          <t>1976; 7637</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6649; 11540</t>
+          <t>6122; 10547</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>17790; 31510</t>
+          <t>17092; 30792</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>20246; 35361</t>
+          <t>20425; 36229</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8994; 14880</t>
+          <t>7847; 12680</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>27393; 44379</t>
+          <t>26975; 43718</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>24393; 41368</t>
+          <t>23827; 40337</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14191</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30421</t>
+          <t>30057</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>44613</t>
+          <t>44706</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11112; 17911</t>
+          <t>11865; 18599</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>42293; 85559</t>
+          <t>41826; 83074</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33267; 51632</t>
+          <t>31871; 50530</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25865; 35194</t>
+          <t>25356; 34885</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>119268; 193488</t>
+          <t>118353; 190143</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>86017; 115264</t>
+          <t>85481; 115177</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>38920; 50855</t>
+          <t>38912; 50624</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>182556; 267850</t>
+          <t>175052; 264126</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>120960; 157192</t>
+          <t>125199; 161338</t>
         </is>
       </c>
     </row>
